--- a/CashFlow/K_cashflow.xlsx
+++ b/CashFlow/K_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4966000000.0</v>
+        <v>-54000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4908000000.0</v>
+        <v>-71000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3667000000.0</v>
+        <v>-25000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2419000000.0</v>
+        <v>-9000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1242000000.0</v>
+        <v>2000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-3000000.0</v>
@@ -992,19 +992,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-9000000.0</v>
+        <v>9642000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>99000000.0</v>
+        <v>9558000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>249000000.0</v>
+        <v>7262000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>198000000.0</v>
+        <v>4879000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>65000000.0</v>
+        <v>2461000000.0</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
